--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06368866666666666</v>
+        <v>1.945667666666667</v>
       </c>
       <c r="H2">
-        <v>0.191066</v>
+        <v>5.837003</v>
       </c>
       <c r="I2">
-        <v>6.754301890156524E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="J2">
-        <v>6.754301890156522E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N2">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O2">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P2">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q2">
-        <v>35.05312609559778</v>
+        <v>1389.202122872863</v>
       </c>
       <c r="R2">
-        <v>315.47813486038</v>
+        <v>12502.81910585576</v>
       </c>
       <c r="S2">
-        <v>4.166326103506997E-05</v>
+        <v>0.0008922726720355909</v>
       </c>
       <c r="T2">
-        <v>4.166326103506997E-05</v>
+        <v>0.0008922726720355911</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06368866666666666</v>
+        <v>1.945667666666667</v>
       </c>
       <c r="H3">
-        <v>0.191066</v>
+        <v>5.837003</v>
       </c>
       <c r="I3">
-        <v>6.754301890156524E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="J3">
-        <v>6.754301890156522E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>654.373214</v>
       </c>
       <c r="O3">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P3">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q3">
-        <v>13.89205250068044</v>
+        <v>424.3976014708491</v>
       </c>
       <c r="R3">
-        <v>125.028472506124</v>
+        <v>3819.578413237642</v>
       </c>
       <c r="S3">
-        <v>1.651174300603775E-05</v>
+        <v>0.0002725869588269743</v>
       </c>
       <c r="T3">
-        <v>1.651174300603774E-05</v>
+        <v>0.0002725869588269744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06368866666666666</v>
+        <v>1.945667666666667</v>
       </c>
       <c r="H4">
-        <v>0.191066</v>
+        <v>5.837003</v>
       </c>
       <c r="I4">
-        <v>6.754301890156524E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="J4">
-        <v>6.754301890156522E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N4">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O4">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P4">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q4">
-        <v>0.028782373306</v>
+        <v>2.755389045388556</v>
       </c>
       <c r="R4">
-        <v>0.259041359754</v>
+        <v>24.798501408497</v>
       </c>
       <c r="S4">
-        <v>3.421000252548967E-08</v>
+        <v>1.769762877227798E-06</v>
       </c>
       <c r="T4">
-        <v>3.421000252548967E-08</v>
+        <v>1.769762877227798E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06368866666666666</v>
+        <v>1.945667666666667</v>
       </c>
       <c r="H5">
-        <v>0.191066</v>
+        <v>5.837003</v>
       </c>
       <c r="I5">
-        <v>6.754301890156524E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="J5">
-        <v>6.754301890156522E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N5">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O5">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P5">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q5">
-        <v>7.635308818809555</v>
+        <v>123.5664434397266</v>
       </c>
       <c r="R5">
-        <v>68.71777936928599</v>
+        <v>1112.097990957539</v>
       </c>
       <c r="S5">
-        <v>9.075135368351213E-06</v>
+        <v>7.93656724580098E-05</v>
       </c>
       <c r="T5">
-        <v>9.075135368351213E-06</v>
+        <v>7.936567245800983E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06368866666666666</v>
+        <v>1.945667666666667</v>
       </c>
       <c r="H6">
-        <v>0.191066</v>
+        <v>5.837003</v>
       </c>
       <c r="I6">
-        <v>6.754301890156524E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="J6">
-        <v>6.754301890156522E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N6">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O6">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P6">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q6">
-        <v>0.1481364631673333</v>
+        <v>4.120601785723223</v>
       </c>
       <c r="R6">
-        <v>1.333228168506</v>
+        <v>37.08541607150901</v>
       </c>
       <c r="S6">
-        <v>1.760712615736643E-07</v>
+        <v>2.646627373516023E-06</v>
       </c>
       <c r="T6">
-        <v>1.760712615736643E-07</v>
+        <v>2.646627373516023E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.06368866666666666</v>
+        <v>1.945667666666667</v>
       </c>
       <c r="H7">
-        <v>0.191066</v>
+        <v>5.837003</v>
       </c>
       <c r="I7">
-        <v>6.754301890156524E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="J7">
-        <v>6.754301890156522E-05</v>
+        <v>0.00125389885572783</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N7">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O7">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P7">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q7">
-        <v>0.06949350650133333</v>
+        <v>8.185010095009556</v>
       </c>
       <c r="R7">
-        <v>0.625441558512</v>
+        <v>73.66509085508601</v>
       </c>
       <c r="S7">
-        <v>8.259822800714481E-08</v>
+        <v>5.257162156511364E-06</v>
       </c>
       <c r="T7">
-        <v>8.259822800714479E-08</v>
+        <v>5.257162156511365E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>126.923427</v>
       </c>
       <c r="I8">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="J8">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N8">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O8">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P8">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q8">
-        <v>23285.47669976029</v>
+        <v>30207.67579367336</v>
       </c>
       <c r="R8">
-        <v>209569.2902978426</v>
+        <v>271869.0821430603</v>
       </c>
       <c r="S8">
-        <v>0.02767652994549867</v>
+        <v>0.01940213245619443</v>
       </c>
       <c r="T8">
-        <v>0.02767652994549867</v>
+        <v>0.01940213245619443</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>126.923427</v>
       </c>
       <c r="I9">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="J9">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>654.373214</v>
       </c>
       <c r="O9">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P9">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q9">
         <v>9228.365650876041</v>
@@ -1013,10 +1013,10 @@
         <v>83055.29085788438</v>
       </c>
       <c r="S9">
-        <v>0.01096860251467866</v>
+        <v>0.005927300529026193</v>
       </c>
       <c r="T9">
-        <v>0.01096860251467866</v>
+        <v>0.005927300529026194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>126.923427</v>
       </c>
       <c r="I10">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="J10">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N10">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O10">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P10">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q10">
-        <v>19.119871966707</v>
+        <v>59.91489474289699</v>
       </c>
       <c r="R10">
-        <v>172.078847700363</v>
+        <v>539.234052686073</v>
       </c>
       <c r="S10">
-        <v>2.272539728792042E-05</v>
+        <v>3.848282575066902E-05</v>
       </c>
       <c r="T10">
-        <v>2.272539728792043E-05</v>
+        <v>3.848282575066904E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>126.923427</v>
       </c>
       <c r="I11">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="J11">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N11">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O11">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P11">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q11">
-        <v>5072.067042208613</v>
+        <v>2686.905671210339</v>
       </c>
       <c r="R11">
-        <v>45648.60337987752</v>
+        <v>24182.15104089305</v>
       </c>
       <c r="S11">
-        <v>0.006028530881685089</v>
+        <v>0.001725776590234769</v>
       </c>
       <c r="T11">
-        <v>0.006028530881685091</v>
+        <v>0.00172577659023477</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>126.923427</v>
       </c>
       <c r="I12">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="J12">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N12">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O12">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P12">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q12">
-        <v>98.40572142012299</v>
+        <v>89.600930468309</v>
       </c>
       <c r="R12">
-        <v>885.651492781107</v>
+        <v>806.4083742147811</v>
       </c>
       <c r="S12">
-        <v>0.0001169625569967597</v>
+        <v>5.754991324120659E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001169625569967597</v>
+        <v>5.75499132412066E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>126.923427</v>
       </c>
       <c r="I13">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="J13">
-        <v>0.04486822055683604</v>
+        <v>0.02726555732117232</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N13">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O13">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P13">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q13">
-        <v>46.163911943496</v>
+        <v>177.979955002286</v>
       </c>
       <c r="R13">
-        <v>415.475207491464</v>
+        <v>1601.819595020574</v>
       </c>
       <c r="S13">
-        <v>5.486926068894623E-05</v>
+        <v>0.0001143150067250492</v>
       </c>
       <c r="T13">
-        <v>5.486926068894623E-05</v>
+        <v>0.0001143150067250492</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>47.736493</v>
+        <v>105.0803046666667</v>
       </c>
       <c r="H14">
-        <v>143.209479</v>
+        <v>315.240914</v>
       </c>
       <c r="I14">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="J14">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N14">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O14">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P14">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q14">
-        <v>26273.329244721</v>
+        <v>75027.08957750775</v>
       </c>
       <c r="R14">
-        <v>236459.963202489</v>
+        <v>675243.8061975697</v>
       </c>
       <c r="S14">
-        <v>0.03122781607545755</v>
+        <v>0.04818925956860428</v>
       </c>
       <c r="T14">
-        <v>0.03122781607545755</v>
+        <v>0.04818925956860428</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>47.736493</v>
+        <v>105.0803046666667</v>
       </c>
       <c r="H15">
-        <v>143.209479</v>
+        <v>315.240914</v>
       </c>
       <c r="I15">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="J15">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>654.373214</v>
       </c>
       <c r="O15">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P15">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q15">
-        <v>10412.4941164995</v>
+        <v>22920.57889760862</v>
       </c>
       <c r="R15">
-        <v>93712.44704849549</v>
+        <v>206285.2100784776</v>
       </c>
       <c r="S15">
-        <v>0.01237602772485193</v>
+        <v>0.01472169228713704</v>
       </c>
       <c r="T15">
-        <v>0.01237602772485193</v>
+        <v>0.01472169228713704</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>47.736493</v>
+        <v>105.0803046666667</v>
       </c>
       <c r="H16">
-        <v>143.209479</v>
+        <v>315.240914</v>
       </c>
       <c r="I16">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="J16">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N16">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O16">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P16">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q16">
-        <v>21.573219126039</v>
+        <v>148.8111897653429</v>
       </c>
       <c r="R16">
-        <v>194.158972134351</v>
+        <v>1339.300707888086</v>
       </c>
       <c r="S16">
-        <v>2.564138380593124E-05</v>
+        <v>9.558015765634534E-05</v>
       </c>
       <c r="T16">
-        <v>2.564138380593125E-05</v>
+        <v>9.558015765634535E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>47.736493</v>
+        <v>105.0803046666667</v>
       </c>
       <c r="H17">
-        <v>143.209479</v>
+        <v>315.240914</v>
       </c>
       <c r="I17">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="J17">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N17">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O17">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P17">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q17">
-        <v>5722.884228202934</v>
+        <v>6673.492984270986</v>
       </c>
       <c r="R17">
-        <v>51505.95805382641</v>
+        <v>60061.43685843887</v>
       </c>
       <c r="S17">
-        <v>0.006802075764165525</v>
+        <v>0.004286327611256605</v>
       </c>
       <c r="T17">
-        <v>0.006802075764165526</v>
+        <v>0.004286327611256606</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>47.736493</v>
+        <v>105.0803046666667</v>
       </c>
       <c r="H18">
-        <v>143.209479</v>
+        <v>315.240914</v>
       </c>
       <c r="I18">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="J18">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N18">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O18">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P18">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q18">
-        <v>111.032552683871</v>
+        <v>222.5426769801936</v>
       </c>
       <c r="R18">
-        <v>999.2929741548389</v>
+        <v>2002.884092821742</v>
       </c>
       <c r="S18">
-        <v>0.0001319704899711994</v>
+        <v>0.0001429372628803875</v>
       </c>
       <c r="T18">
-        <v>0.0001319704899711994</v>
+        <v>0.0001429372628803875</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>47.736493</v>
+        <v>105.0803046666667</v>
       </c>
       <c r="H19">
-        <v>143.209479</v>
+        <v>315.240914</v>
       </c>
       <c r="I19">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="J19">
-        <v>0.05062544119299252</v>
+        <v>0.06771972214905411</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N19">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O19">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P19">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q19">
-        <v>52.087387917992</v>
+        <v>442.0504946545409</v>
       </c>
       <c r="R19">
-        <v>468.7864912619279</v>
+        <v>3978.454451890868</v>
       </c>
       <c r="S19">
-        <v>6.190975474038508E-05</v>
+        <v>0.0002839252615194567</v>
       </c>
       <c r="T19">
-        <v>6.190975474038508E-05</v>
+        <v>0.0002839252615194567</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3247946666666666</v>
+        <v>0.4503956666666666</v>
       </c>
       <c r="H20">
-        <v>0.9743839999999999</v>
+        <v>1.351187</v>
       </c>
       <c r="I20">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="J20">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N20">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O20">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P20">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q20">
-        <v>178.7612930481245</v>
+        <v>321.5814432163585</v>
       </c>
       <c r="R20">
-        <v>1608.85163743312</v>
+        <v>2894.232988947227</v>
       </c>
       <c r="S20">
-        <v>0.000212471161485537</v>
+        <v>0.0002065490175197364</v>
       </c>
       <c r="T20">
-        <v>0.0002124711614855371</v>
+        <v>0.0002065490175197364</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3247946666666666</v>
+        <v>0.4503956666666666</v>
       </c>
       <c r="H21">
-        <v>0.9743839999999999</v>
+        <v>1.351187</v>
       </c>
       <c r="I21">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="J21">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>654.373214</v>
       </c>
       <c r="O21">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P21">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q21">
-        <v>70.84564330557509</v>
+        <v>98.24228665611311</v>
       </c>
       <c r="R21">
-        <v>637.6107897501759</v>
+        <v>884.1805799050179</v>
       </c>
       <c r="S21">
-        <v>8.42053436885426E-05</v>
+        <v>6.31001825999649E-05</v>
       </c>
       <c r="T21">
-        <v>8.420534368854262E-05</v>
+        <v>6.31001825999649E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3247946666666666</v>
+        <v>0.4503956666666666</v>
       </c>
       <c r="H22">
-        <v>0.9743839999999999</v>
+        <v>1.351187</v>
       </c>
       <c r="I22">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="J22">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N22">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O22">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P22">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q22">
-        <v>0.146782180144</v>
+        <v>0.6378351798125554</v>
       </c>
       <c r="R22">
-        <v>1.321039621296</v>
+        <v>5.740516618312999</v>
       </c>
       <c r="S22">
-        <v>1.744615949504188E-07</v>
+        <v>4.096760945287841E-07</v>
       </c>
       <c r="T22">
-        <v>1.744615949504188E-07</v>
+        <v>4.096760945287842E-07</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3247946666666666</v>
+        <v>0.4503956666666666</v>
       </c>
       <c r="H23">
-        <v>0.9743839999999999</v>
+        <v>1.351187</v>
       </c>
       <c r="I23">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="J23">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N23">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O23">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P23">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q23">
-        <v>38.93797299418488</v>
+        <v>28.60395514821455</v>
       </c>
       <c r="R23">
-        <v>350.441756947664</v>
+        <v>257.435596333931</v>
       </c>
       <c r="S23">
-        <v>4.628069201613854E-05</v>
+        <v>1.837207636719064E-05</v>
       </c>
       <c r="T23">
-        <v>4.628069201613856E-05</v>
+        <v>1.837207636719065E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3247946666666666</v>
+        <v>0.4503956666666666</v>
       </c>
       <c r="H24">
-        <v>0.9743839999999999</v>
+        <v>1.351187</v>
       </c>
       <c r="I24">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="J24">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N24">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O24">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P24">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q24">
-        <v>0.7554551805493331</v>
+        <v>0.9538634064512223</v>
       </c>
       <c r="R24">
-        <v>6.799096624943999</v>
+        <v>8.584770658061</v>
       </c>
       <c r="S24">
-        <v>8.979149620403072E-07</v>
+        <v>6.126583284159686E-07</v>
       </c>
       <c r="T24">
-        <v>8.979149620403073E-07</v>
+        <v>6.126583284159686E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3247946666666666</v>
+        <v>0.4503956666666666</v>
       </c>
       <c r="H25">
-        <v>0.9743839999999999</v>
+        <v>1.351187</v>
       </c>
       <c r="I25">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="J25">
-        <v>0.0003444508019709563</v>
+        <v>0.0002902605726216553</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N25">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O25">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P25">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q25">
-        <v>0.3543977517653333</v>
+        <v>1.894718785521555</v>
       </c>
       <c r="R25">
-        <v>3.189579765888</v>
+        <v>17.052469069694</v>
       </c>
       <c r="S25">
-        <v>4.212282237473636E-07</v>
+        <v>1.216961711818568E-06</v>
       </c>
       <c r="T25">
-        <v>4.212282237473636E-07</v>
+        <v>1.216961711818568E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>816.7897336666668</v>
+        <v>1360.035644333333</v>
       </c>
       <c r="H26">
-        <v>2450.369201</v>
+        <v>4080.106933</v>
       </c>
       <c r="I26">
-        <v>0.8662207470662303</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="J26">
-        <v>0.8662207470662301</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N26">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O26">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P26">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q26">
-        <v>449546.7565313673</v>
+        <v>971062.2408232247</v>
       </c>
       <c r="R26">
-        <v>4045920.808782305</v>
+        <v>8739560.16740902</v>
       </c>
       <c r="S26">
-        <v>0.5343199295194272</v>
+        <v>0.6237049930073446</v>
       </c>
       <c r="T26">
-        <v>0.5343199295194272</v>
+        <v>0.6237049930073446</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>816.7897336666668</v>
+        <v>1360.035644333333</v>
       </c>
       <c r="H27">
-        <v>2450.369201</v>
+        <v>4080.106933</v>
       </c>
       <c r="I27">
-        <v>0.8662207470662303</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="J27">
-        <v>0.8662207470662301</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>654.373214</v>
       </c>
       <c r="O27">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P27">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q27">
-        <v>178161.7743938869</v>
+        <v>296656.9652456547</v>
       </c>
       <c r="R27">
-        <v>1603455.969544982</v>
+        <v>2669912.687210892</v>
       </c>
       <c r="S27">
-        <v>0.2117585887432723</v>
+        <v>0.1905402379535051</v>
       </c>
       <c r="T27">
-        <v>0.2117585887432722</v>
+        <v>0.1905402379535051</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>816.7897336666668</v>
+        <v>1360.035644333333</v>
       </c>
       <c r="H28">
-        <v>2450.369201</v>
+        <v>4080.106933</v>
       </c>
       <c r="I28">
-        <v>0.8662207470662303</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="J28">
-        <v>0.8662207470662301</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N28">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O28">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P28">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q28">
-        <v>369.1260668078411</v>
+        <v>1926.036691638174</v>
       </c>
       <c r="R28">
-        <v>3322.134601270569</v>
+        <v>17334.33022474356</v>
       </c>
       <c r="S28">
-        <v>0.0004387339273057065</v>
+        <v>0.001237076935739654</v>
       </c>
       <c r="T28">
-        <v>0.0004387339273057065</v>
+        <v>0.001237076935739654</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>816.7897336666668</v>
+        <v>1360.035644333333</v>
       </c>
       <c r="H29">
-        <v>2450.369201</v>
+        <v>4080.106933</v>
       </c>
       <c r="I29">
-        <v>0.8662207470662303</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="J29">
-        <v>0.8662207470662301</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N29">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O29">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P29">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q29">
-        <v>97920.7476460209</v>
+        <v>86373.82961163128</v>
       </c>
       <c r="R29">
-        <v>881286.728814188</v>
+        <v>777364.4665046815</v>
       </c>
       <c r="S29">
-        <v>0.1163861294082339</v>
+        <v>0.05547717389182992</v>
       </c>
       <c r="T29">
-        <v>0.1163861294082339</v>
+        <v>0.05547717389182993</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>816.7897336666668</v>
+        <v>1360.035644333333</v>
       </c>
       <c r="H30">
-        <v>2450.369201</v>
+        <v>4080.106933</v>
       </c>
       <c r="I30">
-        <v>0.8662207470662303</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="J30">
-        <v>0.8662207470662301</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N30">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O30">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P30">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q30">
-        <v>1899.809630652783</v>
+        <v>2880.330182126256</v>
       </c>
       <c r="R30">
-        <v>17098.28667587504</v>
+        <v>25922.9716391363</v>
       </c>
       <c r="S30">
-        <v>0.002258065781150608</v>
+        <v>0.001850011503463387</v>
       </c>
       <c r="T30">
-        <v>0.002258065781150608</v>
+        <v>0.001850011503463387</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>816.7897336666668</v>
+        <v>1360.035644333333</v>
       </c>
       <c r="H31">
-        <v>2450.369201</v>
+        <v>4080.106933</v>
       </c>
       <c r="I31">
-        <v>0.8662207470662303</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="J31">
-        <v>0.8662207470662301</v>
+        <v>0.8764842873193464</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N31">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O31">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P31">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q31">
-        <v>891.2352171519816</v>
+        <v>5721.380721463305</v>
       </c>
       <c r="R31">
-        <v>8021.116954367833</v>
+        <v>51492.42649316974</v>
       </c>
       <c r="S31">
-        <v>0.001059299686840586</v>
+        <v>0.003674794027463622</v>
       </c>
       <c r="T31">
-        <v>0.001059299686840585</v>
+        <v>0.003674794027463622</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>35.712335</v>
+        <v>41.87444633333333</v>
       </c>
       <c r="H32">
-        <v>107.137005</v>
+        <v>125.623339</v>
       </c>
       <c r="I32">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207777</v>
       </c>
       <c r="J32">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207778</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>550.3824766666668</v>
+        <v>713.9976403333334</v>
       </c>
       <c r="N32">
-        <v>1651.14743</v>
+        <v>2141.992921</v>
       </c>
       <c r="O32">
-        <v>0.6168403739221149</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="P32">
-        <v>0.616840373922115</v>
+        <v>0.7115986014020788</v>
       </c>
       <c r="Q32">
-        <v>19655.44338484968</v>
+        <v>29898.2558722648</v>
       </c>
       <c r="R32">
-        <v>176898.9904636471</v>
+        <v>269084.3028503832</v>
       </c>
       <c r="S32">
-        <v>0.02336196395921094</v>
+        <v>0.01920339468038013</v>
       </c>
       <c r="T32">
-        <v>0.02336196395921094</v>
+        <v>0.01920339468038013</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>35.712335</v>
+        <v>41.87444633333333</v>
       </c>
       <c r="H33">
-        <v>107.137005</v>
+        <v>125.623339</v>
       </c>
       <c r="I33">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207777</v>
       </c>
       <c r="J33">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207778</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>654.373214</v>
       </c>
       <c r="O33">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="P33">
-        <v>0.2444626147093213</v>
+        <v>0.2173915045713557</v>
       </c>
       <c r="Q33">
-        <v>7789.731811131563</v>
+        <v>9133.838677204616</v>
       </c>
       <c r="R33">
-        <v>70107.58630018406</v>
+        <v>82204.54809484154</v>
       </c>
       <c r="S33">
-        <v>0.009258678639823836</v>
+        <v>0.005866586660260418</v>
       </c>
       <c r="T33">
-        <v>0.009258678639823834</v>
+        <v>0.005866586660260418</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>35.712335</v>
+        <v>41.87444633333333</v>
       </c>
       <c r="H34">
-        <v>107.137005</v>
+        <v>125.623339</v>
       </c>
       <c r="I34">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207777</v>
       </c>
       <c r="J34">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207778</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M34">
-        <v>0.451923</v>
+        <v>1.416166333333333</v>
       </c>
       <c r="N34">
-        <v>1.355769</v>
+        <v>4.248499</v>
       </c>
       <c r="O34">
-        <v>0.0005064920562011907</v>
+        <v>0.00141140800084751</v>
       </c>
       <c r="P34">
-        <v>0.0005064920562011908</v>
+        <v>0.001411408000847511</v>
       </c>
       <c r="Q34">
-        <v>16.139225570205</v>
+        <v>59.3011811242401</v>
       </c>
       <c r="R34">
-        <v>145.253030131845</v>
+        <v>533.710630118161</v>
       </c>
       <c r="S34">
-        <v>1.918267620415667E-05</v>
+        <v>3.808864272908598E-05</v>
       </c>
       <c r="T34">
-        <v>1.918267620415667E-05</v>
+        <v>3.808864272908598E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>35.712335</v>
+        <v>41.87444633333333</v>
       </c>
       <c r="H35">
-        <v>107.137005</v>
+        <v>125.623339</v>
       </c>
       <c r="I35">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207777</v>
       </c>
       <c r="J35">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207778</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>119.8848903333333</v>
+        <v>63.50850433333333</v>
       </c>
       <c r="N35">
-        <v>359.654671</v>
+        <v>190.525513</v>
       </c>
       <c r="O35">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861516</v>
       </c>
       <c r="P35">
-        <v>0.1343608194590323</v>
+        <v>0.06329511514861517</v>
       </c>
       <c r="Q35">
-        <v>4281.369365022261</v>
+        <v>2659.383456416434</v>
       </c>
       <c r="R35">
-        <v>38532.32428520035</v>
+        <v>23934.45110774791</v>
       </c>
       <c r="S35">
-        <v>0.005088727577563359</v>
+        <v>0.001708099306468667</v>
       </c>
       <c r="T35">
-        <v>0.005088727577563359</v>
+        <v>0.001708099306468668</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>35.712335</v>
+        <v>41.87444633333333</v>
       </c>
       <c r="H36">
-        <v>107.137005</v>
+        <v>125.623339</v>
       </c>
       <c r="I36">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207777</v>
       </c>
       <c r="J36">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207778</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.325947</v>
+        <v>2.117834333333334</v>
       </c>
       <c r="N36">
-        <v>6.977841</v>
+        <v>6.353503000000001</v>
       </c>
       <c r="O36">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="P36">
-        <v>0.002606801775180708</v>
+        <v>0.002110718389626233</v>
       </c>
       <c r="Q36">
-        <v>83.06499845624498</v>
+        <v>88.68314013405745</v>
       </c>
       <c r="R36">
-        <v>747.5849861062048</v>
+        <v>798.1482612065171</v>
       </c>
       <c r="S36">
-        <v>9.872896083852691E-05</v>
+        <v>5.696042433931984E-05</v>
       </c>
       <c r="T36">
-        <v>9.872896083852691E-05</v>
+        <v>5.696042433931984E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>35.712335</v>
+        <v>41.87444633333333</v>
       </c>
       <c r="H37">
-        <v>107.137005</v>
+        <v>125.623339</v>
       </c>
       <c r="I37">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207777</v>
       </c>
       <c r="J37">
-        <v>0.03787359736306872</v>
+        <v>0.02698627378207778</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>1.091144</v>
+        <v>4.206787333333334</v>
       </c>
       <c r="N37">
-        <v>3.273432</v>
+        <v>12.620362</v>
       </c>
       <c r="O37">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="P37">
-        <v>0.001222898078149579</v>
+        <v>0.004192652487476611</v>
       </c>
       <c r="Q37">
-        <v>38.96730006124</v>
+        <v>176.1568904254131</v>
       </c>
       <c r="R37">
-        <v>350.70570055116</v>
+        <v>1585.412013828718</v>
       </c>
       <c r="S37">
-        <v>4.63155494279077E-05</v>
+        <v>0.0001131440679001532</v>
       </c>
       <c r="T37">
-        <v>4.631554942790769E-05</v>
+        <v>0.0001131440679001532</v>
       </c>
     </row>
   </sheetData>
